--- a/Siedu Glosario.xlsx
+++ b/Siedu Glosario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Data intelligence/Plataformas informacion/DATAVIVIENDA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="293" documentId="8_{73C0D305-9977-461C-8469-91131FDBDCEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3C76FD20-957F-49A7-B929-563789DE9239}"/>
+  <xr:revisionPtr revIDLastSave="459" documentId="8_{73C0D305-9977-461C-8469-91131FDBDCEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A145D85B-3E89-4624-9964-501E2B65C76D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Glosario" sheetId="28" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Glosario!$F$2:$F$628</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">Glosario!$G$2:$G$628</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">Glosario!$F$2:$F$628</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Glosario!$F$2:$F$621</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Glosario!$G$2:$G$621</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Glosario!$F$2:$F$621</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,8 +38,133 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Reyes</author>
+  </authors>
+  <commentList>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{D72D97FD-56BA-4951-BE29-FF2992076939}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Reyes:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Sugerimos cambiar el nombre en el Menú por:
+Población Plazas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{226B6ECA-91CE-4178-B7F5-FE199224B7C0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Reyes:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Sugerimos cambiar el nombre en el Menú por:
+Bus Hora Punta</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{B72DF7BB-4C19-4AE9-948A-103E059FD05E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Reyes:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Sugerimos cambiar el nombre en el Menú por:
+THP/FHP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{B252C5CC-9396-4390-BEC9-D4232060E132}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Reyes:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Sugerimos cambiar el nombre en el Menú por:
+Partición Modal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{E465C718-02DC-47D6-B975-759DC2920072}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Reyes:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Sugerimos agregar un nombre en el Menú:
+Distancia Colegios</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="135">
   <si>
     <t>Relación entre el tiempo de viaje en hora punta respecto del tiempo de viaje fuera de hora punta</t>
   </si>
@@ -120,9 +245,6 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>Año del indicador</t>
-  </si>
-  <si>
     <t xml:space="preserve">Atributo </t>
   </si>
   <si>
@@ -165,9 +287,6 @@
     <t>BPU_20</t>
   </si>
   <si>
-    <t>Este indicador mide la oferta total de áreas verdes públicas (plazas y parques), determinando el acceso potencial de la población a la dotación de áreas verdes de una comuna. Se mide como las superficies de las plazas - parques, de la comuna, en metros cuadrados de áreas verdes públicas.</t>
-  </si>
-  <si>
     <t xml:space="preserve">BPU_28a </t>
   </si>
   <si>
@@ -180,15 +299,9 @@
     <t xml:space="preserve">Población atendida por el sistema de plazas públicas </t>
   </si>
   <si>
-    <t>Medio Ambiente</t>
-  </si>
-  <si>
     <t>Número de habitantes</t>
   </si>
   <si>
-    <t>El indicador establece la cantidad de personas que de acuerdo con el estándar de distancia (BPU_20) genera una capacidad de carga de las plazas públicas. Permite conocer la dimensión de las brechas territoriales de la población total que está dentro del Límite Urbano Censal (LUC) y aquellos que cumplen con los estándares propuestos por el Consejo Nacional de Desarrollo Urbano (CNDU) para establecer calidad de vida urbana, considera el área de servicio del área verde de 400 metros para plazas y mide el número de habitantes en él.</t>
-  </si>
-  <si>
     <t>Abreviatura</t>
   </si>
   <si>
@@ -216,18 +329,12 @@
     <t>Seguridad vial</t>
   </si>
   <si>
-    <t>Este indicador mide el número de víctimas mortales como producto de siniestros de tránsito.</t>
-  </si>
-  <si>
     <t>DE_31</t>
   </si>
   <si>
     <t>Número de víctimas lesionadas en siniestros de tránsito</t>
   </si>
   <si>
-    <t>Este indicador mide el número de víctimas lesionadas como producto de siniestros de tránsito.</t>
-  </si>
-  <si>
     <t>Número de víctimas fallecidas en siniestros de tránsito</t>
   </si>
   <si>
@@ -279,15 +386,6 @@
     <t>Consumo y uso eficiente del suelo urbano</t>
   </si>
   <si>
-    <t>Pesos por metro cuadrado</t>
-  </si>
-  <si>
-    <t>Las Áreas Homogéneas (AH) se definen como los espacios del territorio que poseen las mismas características urbanas de acuerdo con uso del suelo, infraestructura vial, categoría de edificaciones, accesibilidad y equipamiento urbano, entre otros. De acuerdo con lo anterior, el uso del territorio se valoriza en pesos por metro cuadrado, lo que caracteriza el territorio de cada una de las AH. De esta manera, el indicador permite observar qué sectores, dentro de una comuna, tienen de acuerdo con su actividad, las áreas menos costosas.</t>
-  </si>
-  <si>
-    <t>Las Áreas Homogéneas (AH) se definen como los espacios del territorio que poseen las mismas características urbanas de acuerdo con uso del suelo, infraestructura vial, categoría de edificaciones, accesibilidad y equipamiento urbano, entre otros. De acuerdo con lo anterior, el uso del territorio se valoriza en pesos por metro cuadrado, lo que caracteriza el territorio de cada una de las AH. De esta manera, el indicador permite observar qué sectores, dentro de una comuna, tienen de acuerdo con su actividad, las áreas más costosas.</t>
-  </si>
-  <si>
     <t>Transporte</t>
   </si>
   <si>
@@ -297,9 +395,6 @@
     <t>BPU_25</t>
   </si>
   <si>
-    <t>2015 - 2016 - 2017 - 2018</t>
-  </si>
-  <si>
     <t>El indicador expresa valores de distancia desde un origen determinado respecto del paradero de transporte público. La distancia se mide a través de redes viales calibradas, desde el centro geométrico de cada manzana hasta el paradero público mayor más próximo, mientras que, para su agregación territorial, dicha distancia se pondera en función de la población a nivel de manzana.</t>
   </si>
   <si>
@@ -307,9 +402,6 @@
   </si>
   <si>
     <t>DE_16</t>
-  </si>
-  <si>
-    <t>2010 - 2012 - 2013 - 2014 - 2017</t>
   </si>
   <si>
     <t>Definida según su instrumento de levantamiento: 63 comunas / Encuesta Origen Destino (en adelante EOD) que cubren 12 ciudades SIEDU.</t>
@@ -346,92 +438,146 @@
     <t>Superficie</t>
   </si>
   <si>
-    <t>IS_20</t>
-  </si>
-  <si>
-    <t>Porcentaje de continuidad de la infraestructura vial en las áreas de crecimiento urbano</t>
-  </si>
-  <si>
     <t>DE_48</t>
   </si>
   <si>
-    <t>https://datasii.exploradorenergia.cl/otros/previa#h.8y0eunsfd8zp</t>
-  </si>
-  <si>
     <t>Data_Intelligence_7</t>
   </si>
   <si>
-    <t xml:space="preserve">Superficie construida promedio de la comuna, promediado sobre todas las edificaciones de la comuna. </t>
-  </si>
-  <si>
-    <t>Superficie Construida</t>
-  </si>
-  <si>
     <t>Este indicador mide el porcentaje que representan los sitios eriazos respecto a superficie total de las áreas urbanas (entendido como el Límite Urbano Censal, LUC). En las ciudades, estos sitios se presentan como una oportunidad de aprovechar eficientemente los espacios para la población (construcción de viviendas sociales, áreas verdes y/o espacios públicos) para crear una ciudad más eficiente con desarrollo urbano. En este análisis, un sitio eriazo es considerado un bien raíz con destino no agrícola y sin construcciones (no edificado), según lo establecido por el Servicio de Impuestos Internos (SII).</t>
   </si>
   <si>
-    <t xml:space="preserve">Este indicador permite evaluar el crecimiento urbano con respecto a los ejes viales, en relación con el tejido urbano consolidado o mancha urbana existente. También permite analizar en qué medida la vialidad estructurante de las nuevas urbanizaciones se encuentra relacionada espacialmente con la vialidad estructurante de la ciudad, lo que es importante para la conectividad de la trama urbana y que incide en la eficiencia del consumo del suelo, ya que evita los espacios vacíos que se generan en las zonas intersticiales de los nuevos tejidos urbanos cuando no están en contacto con el tejido existente. </t>
-  </si>
-  <si>
-    <t>Conectividad e integración espacial con el entorno urbano de urbanizaciones nuevas y existentes</t>
-  </si>
-  <si>
-    <t>35 Ciudades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porcentaje </t>
-  </si>
-  <si>
     <t>Data_Intelligence_8</t>
   </si>
   <si>
-    <t>Data_Intelligence_9</t>
-  </si>
-  <si>
-    <t>Superficie total de las áreas urbanas</t>
-  </si>
-  <si>
-    <t>Entendido como el Límite Urbano Censal, (LUC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Límite urbano de 117 comunas </t>
   </si>
   <si>
-    <t>Planificación y catastro</t>
-  </si>
-  <si>
-    <t>https://www.ine.cl/herramientas/portal-de-mapas/geodatos-abiertos</t>
-  </si>
-  <si>
-    <t>https://www.observatoriourbano.cl/estadisticas-habitacionales/</t>
-  </si>
-  <si>
-    <t>Número de predios</t>
-  </si>
-  <si>
-    <t>Sitio eriazo</t>
-  </si>
-  <si>
-    <t>Data_Intelligence_10</t>
-  </si>
-  <si>
-    <t>Total de predios</t>
-  </si>
-  <si>
-    <t>En el área urbana, excluidas las áreas de extensión urbana, cuando el terreno o predio afecto no presenta alguna de las condiciones singulares, la superficie predial mínima será de 2.500 m2 o menor, según lo determine el Instrumento de Planificación Territorial correspondiente.</t>
-  </si>
-  <si>
-    <t>Número de predios por destino predial</t>
-  </si>
-  <si>
-    <t>https://bit.ly/3hed29F</t>
+    <t>Ambiente</t>
+  </si>
+  <si>
+    <t>Distancia a plazas públicas</t>
+  </si>
+  <si>
+    <t>Nombre Menú</t>
+  </si>
+  <si>
+    <t>Distancia plazas</t>
+  </si>
+  <si>
+    <t>Población plazas (%)</t>
+  </si>
+  <si>
+    <t>Tasa Fallecidos</t>
+  </si>
+  <si>
+    <t>Tasa Lesionados</t>
+  </si>
+  <si>
+    <t>Fallecidos</t>
+  </si>
+  <si>
+    <t>Lesionados</t>
+  </si>
+  <si>
+    <t>Hacinamiento</t>
+  </si>
+  <si>
+    <t>Mejoras Viviendas</t>
+  </si>
+  <si>
+    <t>Área Homogenea (-)</t>
+  </si>
+  <si>
+    <t>Distancia Paraderos</t>
+  </si>
+  <si>
+    <t>Área Homogenea (+)</t>
+  </si>
+  <si>
+    <t>Diferencia Área</t>
+  </si>
+  <si>
+    <t>Área verde (m2)</t>
+  </si>
+  <si>
+    <t>Área verde (m2/hab)</t>
+  </si>
+  <si>
+    <t>Este indicador es la suma de las superficies de parques y plazas, determinando el acceso potencial de la población a la dotación de áreas verdes de una comuna.</t>
+  </si>
+  <si>
+    <t>Este indicador mide la población que cumple con el estándar de distancia a plazas públicas (BPU_20).</t>
+  </si>
+  <si>
+    <t>Este indicador mide el número de víctimas mortales como producto de siniestros de tránsito de una comuna.</t>
+  </si>
+  <si>
+    <t>Este indicador mide el número de víctimas lesionadas como producto de siniestros de tránsito de una comuna.</t>
+  </si>
+  <si>
+    <t>Pesos/Metros cuadrados</t>
+  </si>
+  <si>
+    <t>Las Áreas Homogéneas (AH) se definen como los espacios del territorio que poseen las mismas características urbanas de acuerdo con uso del suelo, infraestructura vial, categoría de edificaciones, accesibilidad y equipamiento urbano, entre otros. De acuerdo con lo anterior, el uso del territorio se valoriza en pesos por metro cuadrado, lo que caracteriza el territorio de cada una de las AH. De los cuales se selecciona las AH con mayor valor.</t>
+  </si>
+  <si>
+    <t>Las Áreas Homogéneas (AH) se definen como los espacios del territorio que poseen las mismas características urbanas de acuerdo con uso del suelo, infraestructura vial, categoría de edificaciones, accesibilidad y equipamiento urbano, entre otros. De acuerdo con lo anterior, el uso del territorio se valoriza en pesos por metro cuadrado, lo que caracteriza el territorio de cada una de las AH. De los cuales se selecciona las AH con menor valor.</t>
+  </si>
+  <si>
+    <t>Tiempos Hora Punta</t>
+  </si>
+  <si>
+    <t>DE_29</t>
+  </si>
+  <si>
+    <t>Tiempo de viaje en transporte público en hora punta mañana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este indicador resulta del cálculo del percentil 90 del tiempo de viaje en Transporte Público (TP) en Periodo Punta Mañana (PPM) que es el más crítico del día para los traslados. Se calcula el indicador de los viajes en TP originados en cada comuna, donde menores tiempos de traslado en TP indican mayor eficiencia y desempeño del servicio, así como menor costo social de los viajes. </t>
+  </si>
+  <si>
+    <t>PPM/PFP</t>
+  </si>
+  <si>
+    <t>63 comunas</t>
+  </si>
+  <si>
+    <t>Partición Modal</t>
+  </si>
+  <si>
+    <t>Disancia Colegiados</t>
+  </si>
+  <si>
+    <t>Educación</t>
+  </si>
+  <si>
+    <t>Superficie urbana</t>
+  </si>
+  <si>
+    <t>Superficie sitio eriazo</t>
+  </si>
+  <si>
+    <t>Superficie Urbana</t>
+  </si>
+  <si>
+    <t>Superficie Eriazo</t>
+  </si>
+  <si>
+    <t>Superficie No Construida</t>
+  </si>
+  <si>
+    <t>Este indicador mide la superficie total de las áreas urbanas (entendido como el Límite Urbano Censal, LUC).</t>
+  </si>
+  <si>
+    <t>Este indicador la superficie de los sitios eriazos. En las ciudades, estos sitios se presentan como una oportunidad de aprovechar eficientemente los espacios para la población (construcción de viviendas sociales, áreas verdes y/o espacios públicos) para crear una ciudad más eficiente con desarrollo urbano. En este análisis, un sitio eriazo es considerado un bien raíz con destino no agrícola y sin construcciones (no edificado), según lo establecido por el Servicio de Impuestos Internos (SII).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,41 +614,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -514,12 +654,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -529,27 +668,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Hipervínculo" xfId="4" builtinId="8"/>
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 2 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -830,829 +968,759 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED88627E-4C7C-4A8C-B8E8-280C8E75A863}">
-  <dimension ref="A2:J45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED88627E-4C7C-4A8C-B8E8-280C8E75A863}">
+  <dimension ref="A2:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="33" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="1" customWidth="1"/>
     <col min="4" max="4" width="65.140625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>97</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="G3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="96" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="84" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>43</v>
+      <c r="I6" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="108" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="A8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>43</v>
+      <c r="I8" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="108" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>43</v>
+      <c r="F10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="108" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="108" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2017</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="96" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="6">
-        <v>2017</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="84" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="84" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="G14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="72" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>43</v>
+      <c r="G15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="132" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="72" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="72" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="96" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="84" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="96" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="E25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="96" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="96" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="6">
-        <v>2017</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="96" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2017</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>125</v>
-      </c>
+      <c r="I25" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="1"/>
-      <c r="H26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>106</v>
-      </c>
+    </row>
+    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="1"/>
-      <c r="H27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="D30" s="4"/>
+    </row>
+    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.25">
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="D31" s="4"/>
+    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.25">
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-      <c r="D32" s="4"/>
+    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.25">
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="2:5" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="D33" s="4"/>
+    <row r="33" spans="5:5" ht="12.75" x14ac:dyDescent="0.25">
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="2:5" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-      <c r="D34" s="4"/>
+    <row r="34" spans="5:5" ht="12.75" x14ac:dyDescent="0.25">
       <c r="E34" s="1"/>
     </row>
-    <row r="37" spans="2:5" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:5" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="5:5" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="5:5" ht="12.75" x14ac:dyDescent="0.25">
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="2:5" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:5" ht="12.75" x14ac:dyDescent="0.25">
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="2:5" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="2:5" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="2:5" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="2:5" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="2:5" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="2:5" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="2:5" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="E45" s="1"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="I27" r:id="rId1" location="h.8y0eunsfd8zp" xr:uid="{37BA3DDE-6D64-4566-B2EE-01AC38F8E3B3}"/>
-    <hyperlink ref="I24" r:id="rId2" xr:uid="{FE6A69E8-F331-4423-8765-365993F69ABA}"/>
-    <hyperlink ref="I25" r:id="rId3" xr:uid="{96B9D897-CDCF-4A9D-8A79-61788043A6D3}"/>
-    <hyperlink ref="D26" r:id="rId4" display="En el área urbana, excluidas las áreas de extensión urbana, cuando el terreno o predio afecto no presenta alguna de las condiciones singulares, la superficie predial mínima será de 2.500 m2 o menor, según lo determine el Instrumento de Planificación Territorial correspondiente." xr:uid="{AF0D5948-8E85-444B-80B7-C51054053703}"/>
-    <hyperlink ref="I26" r:id="rId5" xr:uid="{1681C91C-1AC7-4D45-9A21-D23446BD28AC}"/>
-    <hyperlink ref="J26" r:id="rId6" xr:uid="{C7E86287-A0C7-4B0E-9CA2-239198E12611}"/>
-    <hyperlink ref="J25" r:id="rId7" xr:uid="{25A45D89-714D-4A30-90C8-A151CFEF142A}"/>
-  </hyperlinks>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>